--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il13-Il13ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il13-Il13ra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Il13</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.352247</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.6737725</v>
+        <v>8.280552</v>
       </c>
       <c r="N2">
-        <v>19.347545</v>
+        <v>16.561104</v>
       </c>
       <c r="O2">
-        <v>0.1143946711925798</v>
+        <v>0.06375227685066993</v>
       </c>
       <c r="P2">
-        <v>0.08092258145123817</v>
+        <v>0.04445819681279333</v>
       </c>
       <c r="Q2">
-        <v>1.135852447269166</v>
+        <v>0.972266533448</v>
       </c>
       <c r="R2">
-        <v>6.815114683615</v>
+        <v>5.833599200688</v>
       </c>
       <c r="S2">
-        <v>0.1143946711925798</v>
+        <v>0.04169956151875456</v>
       </c>
       <c r="T2">
-        <v>0.08092258145123817</v>
+        <v>0.03286954298829858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.352247</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>83.36113</v>
       </c>
       <c r="O3">
-        <v>0.328588426648511</v>
+        <v>0.2139334768320069</v>
       </c>
       <c r="P3">
-        <v>0.3486642792298585</v>
+        <v>0.2237825161943824</v>
       </c>
       <c r="Q3">
         <v>3.262634217678889</v>
@@ -641,10 +641,10 @@
         <v>29.36370795911</v>
       </c>
       <c r="S3">
-        <v>0.328588426648511</v>
+        <v>0.139931193343467</v>
       </c>
       <c r="T3">
-        <v>0.3486642792298585</v>
+        <v>0.1654504582597963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.352247</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.38178266666667</v>
+        <v>26.34514033333334</v>
       </c>
       <c r="N4">
-        <v>46.145348</v>
+        <v>79.03542100000001</v>
       </c>
       <c r="O4">
-        <v>0.1818932552433972</v>
+        <v>0.2028322121762435</v>
       </c>
       <c r="P4">
-        <v>0.1930064347763879</v>
+        <v>0.2121701730754169</v>
       </c>
       <c r="Q4">
-        <v>1.806062266328444</v>
+        <v>3.093332215665222</v>
       </c>
       <c r="R4">
-        <v>16.254560396956</v>
+        <v>27.839989940987</v>
       </c>
       <c r="S4">
-        <v>0.1818932552433972</v>
+        <v>0.1326699959193609</v>
       </c>
       <c r="T4">
-        <v>0.1930064347763879</v>
+        <v>0.1568650355772041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.352247</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.933794</v>
+        <v>8.8689915</v>
       </c>
       <c r="N5">
-        <v>9.867588</v>
+        <v>17.737983</v>
       </c>
       <c r="O5">
-        <v>0.05834329289446521</v>
+        <v>0.06828269437764999</v>
       </c>
       <c r="P5">
-        <v>0.04127193882517189</v>
+        <v>0.04761752231469486</v>
       </c>
       <c r="Q5">
-        <v>0.579304711706</v>
+        <v>1.0413585496335</v>
       </c>
       <c r="R5">
-        <v>3.475828270236</v>
+        <v>6.248151297801</v>
       </c>
       <c r="S5">
-        <v>0.05834329289446521</v>
+        <v>0.04466285057609218</v>
       </c>
       <c r="T5">
-        <v>0.04127193882517189</v>
+        <v>0.03520534589627657</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -797,10 +797,10 @@
         <v>0.352247</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.901780666666666</v>
+        <v>51.00428400000001</v>
       </c>
       <c r="N6">
-        <v>17.705342</v>
+        <v>153.012852</v>
       </c>
       <c r="O6">
-        <v>0.06978996651141606</v>
+        <v>0.3926838735072487</v>
       </c>
       <c r="P6">
-        <v>0.07405394225040066</v>
+        <v>0.4107621985287224</v>
       </c>
       <c r="Q6">
-        <v>0.692961511497111</v>
+        <v>5.988702008716</v>
       </c>
       <c r="R6">
-        <v>6.236653603473999</v>
+        <v>53.898318078444</v>
       </c>
       <c r="S6">
-        <v>0.06978996651141606</v>
+        <v>0.2568495769820694</v>
       </c>
       <c r="T6">
-        <v>0.07405394225040066</v>
+        <v>0.3036912585402621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.352247</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.6540874079906115</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.7393359457808691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.88671433333333</v>
+        <v>7.600361666666665</v>
       </c>
       <c r="N7">
-        <v>62.660143</v>
+        <v>22.801085</v>
       </c>
       <c r="O7">
-        <v>0.2469903875096308</v>
+        <v>0.05851546625618104</v>
       </c>
       <c r="P7">
-        <v>0.2620808234669428</v>
+        <v>0.0612093930739901</v>
       </c>
       <c r="Q7">
-        <v>2.452427487924556</v>
+        <v>0.8924015319994442</v>
       </c>
       <c r="R7">
-        <v>22.071847391321</v>
+        <v>8.031613787994999</v>
       </c>
       <c r="S7">
-        <v>0.2469903875096308</v>
+        <v>0.03827422965086755</v>
       </c>
       <c r="T7">
-        <v>0.2620808234669428</v>
+        <v>0.04525430451903145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.062095</v>
+      </c>
+      <c r="H8">
+        <v>0.12419</v>
+      </c>
+      <c r="I8">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J8">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.280552</v>
+      </c>
+      <c r="N8">
+        <v>16.561104</v>
+      </c>
+      <c r="O8">
+        <v>0.06375227685066993</v>
+      </c>
+      <c r="P8">
+        <v>0.04445819681279333</v>
+      </c>
+      <c r="Q8">
+        <v>0.51418087644</v>
+      </c>
+      <c r="R8">
+        <v>2.05672350576</v>
+      </c>
+      <c r="S8">
+        <v>0.02205271533191537</v>
+      </c>
+      <c r="T8">
+        <v>0.01158865382449475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.062095</v>
+      </c>
+      <c r="H9">
+        <v>0.12419</v>
+      </c>
+      <c r="I9">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J9">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>27.78704333333333</v>
+      </c>
+      <c r="N9">
+        <v>83.36113</v>
+      </c>
+      <c r="O9">
+        <v>0.2139334768320069</v>
+      </c>
+      <c r="P9">
+        <v>0.2237825161943824</v>
+      </c>
+      <c r="Q9">
+        <v>1.725436455783333</v>
+      </c>
+      <c r="R9">
+        <v>10.3526187347</v>
+      </c>
+      <c r="S9">
+        <v>0.07400228348853999</v>
+      </c>
+      <c r="T9">
+        <v>0.05833205793458598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.062095</v>
+      </c>
+      <c r="H10">
+        <v>0.12419</v>
+      </c>
+      <c r="I10">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J10">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>26.34514033333334</v>
+      </c>
+      <c r="N10">
+        <v>79.03542100000001</v>
+      </c>
+      <c r="O10">
+        <v>0.2028322121762435</v>
+      </c>
+      <c r="P10">
+        <v>0.2121701730754169</v>
+      </c>
+      <c r="Q10">
+        <v>1.635901488998333</v>
+      </c>
+      <c r="R10">
+        <v>9.815408933990001</v>
+      </c>
+      <c r="S10">
+        <v>0.07016221625688264</v>
+      </c>
+      <c r="T10">
+        <v>0.05530513749821284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.062095</v>
+      </c>
+      <c r="H11">
+        <v>0.12419</v>
+      </c>
+      <c r="I11">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J11">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.8689915</v>
+      </c>
+      <c r="N11">
+        <v>17.737983</v>
+      </c>
+      <c r="O11">
+        <v>0.06828269437764999</v>
+      </c>
+      <c r="P11">
+        <v>0.04761752231469486</v>
+      </c>
+      <c r="Q11">
+        <v>0.5507200271925</v>
+      </c>
+      <c r="R11">
+        <v>2.20288010877</v>
+      </c>
+      <c r="S11">
+        <v>0.02361984380155781</v>
+      </c>
+      <c r="T11">
+        <v>0.01241217641841829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.062095</v>
+      </c>
+      <c r="H12">
+        <v>0.12419</v>
+      </c>
+      <c r="I12">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J12">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>51.00428400000001</v>
+      </c>
+      <c r="N12">
+        <v>153.012852</v>
+      </c>
+      <c r="O12">
+        <v>0.3926838735072487</v>
+      </c>
+      <c r="P12">
+        <v>0.4107621985287224</v>
+      </c>
+      <c r="Q12">
+        <v>3.16711101498</v>
+      </c>
+      <c r="R12">
+        <v>19.00266608988</v>
+      </c>
+      <c r="S12">
+        <v>0.1358342965251793</v>
+      </c>
+      <c r="T12">
+        <v>0.1070709399884602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.062095</v>
+      </c>
+      <c r="H13">
+        <v>0.12419</v>
+      </c>
+      <c r="I13">
+        <v>0.3459125920093885</v>
+      </c>
+      <c r="J13">
+        <v>0.2606640542191307</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.600361666666665</v>
+      </c>
+      <c r="N13">
+        <v>22.801085</v>
+      </c>
+      <c r="O13">
+        <v>0.05851546625618104</v>
+      </c>
+      <c r="P13">
+        <v>0.0612093930739901</v>
+      </c>
+      <c r="Q13">
+        <v>0.4719444576916665</v>
+      </c>
+      <c r="R13">
+        <v>2.831666746149999</v>
+      </c>
+      <c r="S13">
+        <v>0.02024123660531349</v>
+      </c>
+      <c r="T13">
+        <v>0.01595508855495864</v>
       </c>
     </row>
   </sheetData>
